--- a/Project course.xlsx
+++ b/Project course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boubacar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BA61D-0FE9-8642-ACB8-A77F46093456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FCB1BF-98F8-E74F-9450-69294384D58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{58E12F97-2236-6341-A4EF-C19BAB7F91FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
   <si>
     <t>CIS100-1200</t>
   </si>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61424602-6C0E-8C47-BDD2-538B3AD9F6B2}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,9 +1491,6 @@
       <c r="D38" t="s">
         <v>105</v>
       </c>
-      <c r="E38" t="s">
-        <v>105</v>
-      </c>
       <c r="G38">
         <v>4</v>
       </c>
